--- a/Projects/PILMAPRES/Trial Web/rubric/rubric.xlsx
+++ b/Projects/PILMAPRES/Trial Web/rubric/rubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7323953aad638aa/Documents/Student Affairs/Projects/PILMAPRES/Trial Web/rubric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{81F125FA-3DF7-4F40-9741-DFFC8CDA854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E392CAE5-FAFE-4EE7-9379-3411BB5EAC9B}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{81F125FA-3DF7-4F40-9741-DFFC8CDA854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D051F62-8067-466D-8695-EC35E5A64065}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B977EF6-0574-47D9-9AF4-43E9ED203318}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{8B977EF6-0574-47D9-9AF4-43E9ED203318}"/>
   </bookViews>
   <sheets>
     <sheet name="pilmapres" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="64">
   <si>
     <t>Placement</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Field</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
   <si>
     <t>Type</t>
@@ -296,27 +293,6 @@
     <cellStyle name="Normal 3" xfId="2" xr:uid="{E36CD32C-7A65-4F54-B37C-7B37B0A6054E}"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -447,6 +423,27 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -467,13 +464,13 @@
     <sortCondition ref="A1:A177"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72CBB8A6-FAC5-40E4-9848-1A3EE0D6AFE2}" name="Placement" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{72CBB8A6-FAC5-40E4-9848-1A3EE0D6AFE2}" name="Placement" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{B9A199C4-4AAC-4C1F-B410-789C7465A14E}" name="Field"/>
-    <tableColumn id="3" xr3:uid="{E147390F-EB4C-4967-B051-6DB71898D5FA}" name="Category"/>
+    <tableColumn id="3" xr3:uid="{E147390F-EB4C-4967-B051-6DB71898D5FA}" name="Level"/>
     <tableColumn id="4" xr3:uid="{D8D34E39-DB6C-4168-9428-59A1BF4228FC}" name="Type"/>
     <tableColumn id="6" xr3:uid="{C73FFD34-10B8-4CAB-ADEA-0367407B48D6}" name="Score"/>
-    <tableColumn id="8" xr3:uid="{154D8029-DF7A-4762-8701-B4A54387B8FE}" name="Criteria" dataDxfId="0">
-      <calculatedColumnFormula>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{154D8029-DF7A-4762-8701-B4A54387B8FE}" name="Criteria" dataDxfId="7">
+      <calculatedColumnFormula>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -481,14 +478,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DB6676B-36C4-441C-85A4-A7AEEF15EFD6}" name="GradingSimkat" displayName="GradingSimkat" ref="A1:E50" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:E50" xr:uid="{3B373465-528D-43CE-8DFC-85D264F6ECE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DB6676B-36C4-441C-85A4-A7AEEF15EFD6}" name="GradingSimkat" displayName="GradingSimkat" ref="A1:E50" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E50" xr:uid="{3B373465-528D-43CE-8DFC-85D264F6ECE7}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="-"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E50">
+    <sortCondition ref="A1:A50"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="6" xr3:uid="{369369B2-812F-4653-8A5E-A500840BAD04}" name="Placement" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{5BFB109D-4619-4BB4-9B02-802D6615D2AC}" name="Level" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FA2D5095-515F-4535-A22A-3621F1C37E84}" name="Team Category" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E095C5FF-097D-4908-87C7-BF63EE603861}" name="Score" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{519380CF-516E-417B-9FCF-A66E3D55F932}" name="Criteria" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{369369B2-812F-4653-8A5E-A500840BAD04}" name="Placement" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5BFB109D-4619-4BB4-9B02-802D6615D2AC}" name="Level" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FA2D5095-515F-4535-A22A-3621F1C37E84}" name="Team Category" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E095C5FF-097D-4908-87C7-BF63EE603861}" name="Score" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{519380CF-516E-417B-9FCF-A66E3D55F932}" name="Criteria" dataDxfId="0">
       <calculatedColumnFormula>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -795,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A524BC-0DE5-4B7B-BA2E-80CD5D6D3525}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,10 +824,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -832,10 +838,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -847,16 +853,16 @@
         <v>40</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Bendahara|External International|Individual</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -868,16 +874,16 @@
         <v>30</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Bendahara|External Regional|Individual</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -889,20 +895,20 @@
         <v>20</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Bendahara|External National|Individual</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
@@ -910,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Bendahara|External Provincial|Individual</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -931,16 +937,16 @@
         <v>6</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Bendahara|Kab/Kota/PT|Individual</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -952,16 +958,16 @@
         <v>20</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Buku Ber-ISBN Penulis Kedua dst|External National|Individual</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -973,16 +979,16 @@
         <v>30</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Buku Ber-ISBN Penulis Utama|External National|Individual</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -994,16 +1000,16 @@
         <v>28</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Finalis|External International|Individual</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -1015,17 +1021,17 @@
         <v>20</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Finalis|External Regional|Individual</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1036,19 +1042,19 @@
         <v>12</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Finalis|External National|Individual</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -1057,16 +1063,16 @@
         <v>8</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Finalis|External Provincial|Individual</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -1078,16 +1084,16 @@
         <v>25</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Finalis|External International|Team</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -1099,16 +1105,16 @@
         <v>13</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Finalis|External Regional|Team</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -1120,19 +1126,19 @@
         <v>7.5</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Finalis|External National|Team</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -1141,16 +1147,16 @@
         <v>5</v>
       </c>
       <c r="F16" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Finalis|External Provincial|Team</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -1162,16 +1168,16 @@
         <v>20</v>
       </c>
       <c r="F17" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Hak Cipta|External National|Individual</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
@@ -1183,7 +1189,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Hak Cipta|External National|Team</v>
       </c>
     </row>
@@ -1192,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
@@ -1204,7 +1210,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 1|External International|Individual</v>
       </c>
     </row>
@@ -1213,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -1225,7 +1231,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 1|External Regional|Individual</v>
       </c>
     </row>
@@ -1234,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
@@ -1246,7 +1252,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 1|External National|Individual</v>
       </c>
     </row>
@@ -1255,10 +1261,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
@@ -1267,7 +1273,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 1|External Provincial|Individual</v>
       </c>
     </row>
@@ -1276,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>11</v>
@@ -1288,7 +1294,7 @@
         <v>35</v>
       </c>
       <c r="F23" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 1|External International|Team</v>
       </c>
     </row>
@@ -1297,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -1309,7 +1315,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 1|External Regional|Team</v>
       </c>
     </row>
@@ -1318,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
@@ -1330,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 1|External National|Team</v>
       </c>
     </row>
@@ -1339,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>12</v>
@@ -1351,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 1|External Provincial|Team</v>
       </c>
     </row>
@@ -1360,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
@@ -1372,7 +1378,7 @@
         <v>40</v>
       </c>
       <c r="F27" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 2|External International|Individual</v>
       </c>
     </row>
@@ -1381,7 +1387,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>6</v>
@@ -1393,7 +1399,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 2|External Regional|Individual</v>
       </c>
     </row>
@@ -1402,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
@@ -1414,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="F29" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 2|External National|Individual</v>
       </c>
     </row>
@@ -1423,10 +1429,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
@@ -1435,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 2|External Provincial|Individual</v>
       </c>
     </row>
@@ -1444,7 +1450,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>11</v>
@@ -1456,7 +1462,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 2|External International|Team</v>
       </c>
     </row>
@@ -1465,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>6</v>
@@ -1477,7 +1483,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 2|External Regional|Team</v>
       </c>
     </row>
@@ -1486,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>10</v>
@@ -1498,7 +1504,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 2|External National|Team</v>
       </c>
     </row>
@@ -1507,10 +1513,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>12</v>
@@ -1519,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 2|External Provincial|Team</v>
       </c>
     </row>
@@ -1528,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>11</v>
@@ -1540,7 +1546,7 @@
         <v>35</v>
       </c>
       <c r="F35" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 3|External International|Individual</v>
       </c>
     </row>
@@ -1549,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>6</v>
@@ -1561,7 +1567,7 @@
         <v>25</v>
       </c>
       <c r="F36" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 3|External Regional|Individual</v>
       </c>
     </row>
@@ -1570,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
@@ -1582,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 3|External National|Individual</v>
       </c>
     </row>
@@ -1591,10 +1597,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>7</v>
@@ -1603,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 3|External Provincial|Individual</v>
       </c>
     </row>
@@ -1612,7 +1618,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>11</v>
@@ -1624,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="F39" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 3|External International|Team</v>
       </c>
     </row>
@@ -1633,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
@@ -1645,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 3|External Regional|Team</v>
       </c>
     </row>
@@ -1654,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>10</v>
@@ -1666,7 +1672,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 3|External National|Team</v>
       </c>
     </row>
@@ -1675,10 +1681,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
@@ -1687,16 +1693,16 @@
         <v>6</v>
       </c>
       <c r="F42" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Juara 3|External Provincial|Team</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
@@ -1708,16 +1714,16 @@
         <v>50</v>
       </c>
       <c r="F43" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Ketua|External International|Individual</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>6</v>
@@ -1729,16 +1735,16 @@
         <v>50</v>
       </c>
       <c r="F44" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Ketua|External Regional|Individual</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>10</v>
@@ -1750,16 +1756,16 @@
         <v>40</v>
       </c>
       <c r="F45" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Ketua|External National|Individual</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>6</v>
@@ -1771,19 +1777,19 @@
         <v>30</v>
       </c>
       <c r="F46" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Ketua|External Regional|Individual</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>7</v>
@@ -1792,19 +1798,19 @@
         <v>20</v>
       </c>
       <c r="F47" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Ketua|External Provincial|Individual</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>7</v>
@@ -1813,16 +1819,16 @@
         <v>10</v>
       </c>
       <c r="F48" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Ketua|Kab/Kota/PT|Individual</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>11</v>
@@ -1834,16 +1840,16 @@
         <v>50</v>
       </c>
       <c r="F49" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Kewirausahaan|External International|Individual</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>6</v>
@@ -1855,16 +1861,16 @@
         <v>40</v>
       </c>
       <c r="F50" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Kewirausahaan|External Regional|Individual</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>10</v>
@@ -1876,19 +1882,19 @@
         <v>30</v>
       </c>
       <c r="F51" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Kewirausahaan|External National|Individual</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>7</v>
@@ -1897,19 +1903,19 @@
         <v>20</v>
       </c>
       <c r="F52" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Kewirausahaan|External Provincial|Individual</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>7</v>
@@ -1918,16 +1924,16 @@
         <v>10</v>
       </c>
       <c r="F53" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Kewirausahaan|Kab/Kota/PT|Individual</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>11</v>
@@ -1939,16 +1945,16 @@
         <v>35</v>
       </c>
       <c r="F54" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Koordinator Relawan|External International|Individual</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>6</v>
@@ -1960,16 +1966,16 @@
         <v>25</v>
       </c>
       <c r="F55" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Koordinator Relawan|External Regional|Individual</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
         <v>15</v>
       </c>
       <c r="F56" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Koordinator Relawan|External National|Individual</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>7</v>
@@ -2002,19 +2008,19 @@
         <v>10</v>
       </c>
       <c r="F57" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Koordinator Relawan|External Provincial|Individual</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>7</v>
@@ -2023,16 +2029,16 @@
         <v>5</v>
       </c>
       <c r="F58" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Koordinator Relawan|Kab/Kota/PT|Individual</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>11</v>
@@ -2044,16 +2050,16 @@
         <v>35</v>
       </c>
       <c r="F59" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Koordinator Relawan|External International|Team</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>6</v>
@@ -2065,16 +2071,16 @@
         <v>25</v>
       </c>
       <c r="F60" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Koordinator Relawan|External Regional|Team</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>10</v>
@@ -2086,19 +2092,19 @@
         <v>15</v>
       </c>
       <c r="F61" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Koordinator Relawan|External National|Team</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>12</v>
@@ -2107,19 +2113,19 @@
         <v>10</v>
       </c>
       <c r="F62" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Koordinator Relawan|External Provincial|Team</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>12</v>
@@ -2128,16 +2134,16 @@
         <v>5</v>
       </c>
       <c r="F63" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Koordinator Relawan|Kab/Kota/PT|Team</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>11</v>
@@ -2149,16 +2155,16 @@
         <v>30</v>
       </c>
       <c r="F64" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Emas|External International|Individual</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>6</v>
@@ -2170,17 +2176,17 @@
         <v>20</v>
       </c>
       <c r="F65" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Emas|External Regional|Individual</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2191,19 +2197,19 @@
         <v>10</v>
       </c>
       <c r="F66" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Emas|External National|Individual</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>7</v>
@@ -2212,16 +2218,16 @@
         <v>5</v>
       </c>
       <c r="F67" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Emas|External Provincial|Individual</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>11</v>
@@ -2233,16 +2239,16 @@
         <v>25</v>
       </c>
       <c r="F68" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Perak|External International|Individual</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>6</v>
@@ -2254,16 +2260,16 @@
         <v>15</v>
       </c>
       <c r="F69" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Perak|External Regional|Individual</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>10</v>
@@ -2275,19 +2281,19 @@
         <v>7</v>
       </c>
       <c r="F70" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Perak|External National|Individual</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>7</v>
@@ -2296,16 +2302,16 @@
         <v>3</v>
       </c>
       <c r="F71" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Perak|External Provincial|Individual</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>11</v>
@@ -2317,16 +2323,16 @@
         <v>20</v>
       </c>
       <c r="F72" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Perunggu|External International|Individual</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>6</v>
@@ -2338,16 +2344,16 @@
         <v>10</v>
       </c>
       <c r="F73" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Perunggu|External Regional|Individual</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>10</v>
@@ -2359,19 +2365,19 @@
         <v>5</v>
       </c>
       <c r="F74" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Perunggu|External National|Individual</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>7</v>
@@ -2380,16 +2386,16 @@
         <v>2</v>
       </c>
       <c r="F75" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Medali Perunggu|External Provincial|Individual</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>11</v>
@@ -2401,16 +2407,16 @@
         <v>20</v>
       </c>
       <c r="F76" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Moderator|External International|Individual</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>6</v>
@@ -2422,17 +2428,17 @@
         <v>15</v>
       </c>
       <c r="F77" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Moderator|External Regional|Individual</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C78" s="3" t="s">
         <v>10</v>
       </c>
@@ -2443,19 +2449,19 @@
         <v>10</v>
       </c>
       <c r="F78" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Moderator|External National|Individual</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C79" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>7</v>
@@ -2464,16 +2470,16 @@
         <v>5</v>
       </c>
       <c r="F79" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Moderator|External Provincial|Individual</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>11</v>
@@ -2485,16 +2491,16 @@
         <v>20</v>
       </c>
       <c r="F80" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Moderator|External International|Team</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>6</v>
@@ -2506,17 +2512,17 @@
         <v>15</v>
       </c>
       <c r="F81" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Moderator|External Regional|Team</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C82" s="3" t="s">
         <v>10</v>
       </c>
@@ -2527,19 +2533,19 @@
         <v>10</v>
       </c>
       <c r="F82" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Moderator|External National|Team</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C83" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>12</v>
@@ -2548,16 +2554,16 @@
         <v>5</v>
       </c>
       <c r="F83" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Moderator|External Provincial|Team</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>11</v>
@@ -2569,16 +2575,16 @@
         <v>25</v>
       </c>
       <c r="F84" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Narasumber/Pembicara|External International|Individual</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>6</v>
@@ -2590,16 +2596,16 @@
         <v>20</v>
       </c>
       <c r="F85" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Narasumber/Pembicara|External Regional|Individual</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>10</v>
@@ -2611,19 +2617,19 @@
         <v>15</v>
       </c>
       <c r="F86" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Narasumber/Pembicara|External National|Individual</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>7</v>
@@ -2632,16 +2638,16 @@
         <v>10</v>
       </c>
       <c r="F87" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Narasumber/Pembicara|External Provincial|Individual</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>11</v>
@@ -2653,16 +2659,16 @@
         <v>25</v>
       </c>
       <c r="F88" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Narasumber/Pembicara|External International|Team</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>6</v>
@@ -2674,16 +2680,16 @@
         <v>20</v>
       </c>
       <c r="F89" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Narasumber/Pembicara|External Regional|Team</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>10</v>
@@ -2695,19 +2701,19 @@
         <v>15</v>
       </c>
       <c r="F90" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Narasumber/Pembicara|External National|Team</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>12</v>
@@ -2716,16 +2722,16 @@
         <v>10</v>
       </c>
       <c r="F91" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Narasumber/Pembicara|External Provincial|Team</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>10</v>
@@ -2737,16 +2743,16 @@
         <v>45</v>
       </c>
       <c r="F92" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Patent|External National|Individual</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>10</v>
@@ -2758,16 +2764,16 @@
         <v>20</v>
       </c>
       <c r="F93" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Patent Sederhana|External National|Individual</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>11</v>
@@ -2779,16 +2785,16 @@
         <v>50</v>
       </c>
       <c r="F94" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Berlisensi|External International|Individual</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>6</v>
@@ -2800,16 +2806,16 @@
         <v>40</v>
       </c>
       <c r="F95" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Berlisensi|External Regional|Individual</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>10</v>
@@ -2821,19 +2827,19 @@
         <v>30</v>
       </c>
       <c r="F96" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Berlisensi|External National|Individual</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>7</v>
@@ -2842,16 +2848,16 @@
         <v>20</v>
       </c>
       <c r="F97" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Berlisensi|External Provincial|Individual</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>11</v>
@@ -2863,16 +2869,16 @@
         <v>50</v>
       </c>
       <c r="F98" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Berlisensi|External International|Team</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>6</v>
@@ -2884,16 +2890,16 @@
         <v>40</v>
       </c>
       <c r="F99" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Berlisensi|External Regional|Team</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>10</v>
@@ -2905,19 +2911,19 @@
         <v>30</v>
       </c>
       <c r="F100" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Berlisensi|External National|Team</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>12</v>
@@ -2926,16 +2932,16 @@
         <v>20</v>
       </c>
       <c r="F101" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Berlisensi|External Provincial|Team</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>11</v>
@@ -2947,16 +2953,16 @@
         <v>25</v>
       </c>
       <c r="F102" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Tidak Berlisensi|External International|Individual</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>6</v>
@@ -2968,16 +2974,16 @@
         <v>20</v>
       </c>
       <c r="F103" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Tidak Berlisensi|External Regional|Individual</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>10</v>
@@ -2989,19 +2995,19 @@
         <v>15</v>
       </c>
       <c r="F104" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Tidak Berlisensi|External National|Individual</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>7</v>
@@ -3010,16 +3016,16 @@
         <v>10</v>
       </c>
       <c r="F105" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Tidak Berlisensi|External Provincial|Individual</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>11</v>
@@ -3031,16 +3037,16 @@
         <v>25</v>
       </c>
       <c r="F106" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Tidak Berlisensi|External International|Team</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>6</v>
@@ -3052,16 +3058,16 @@
         <v>20</v>
       </c>
       <c r="F107" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Tidak Berlisensi|External Regional|Team</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>10</v>
@@ -3073,19 +3079,19 @@
         <v>15</v>
       </c>
       <c r="F108" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Tidak Berlisensi|External National|Team</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>12</v>
@@ -3094,16 +3100,16 @@
         <v>10</v>
       </c>
       <c r="F109" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pelatih/Wasit/Juri Tidak Berlisensi|External Provincial|Team</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>11</v>
@@ -3115,16 +3121,16 @@
         <v>50</v>
       </c>
       <c r="F110" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pemrakarsa/Pendiri|External International|Individual</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>6</v>
@@ -3136,16 +3142,16 @@
         <v>40</v>
       </c>
       <c r="F111" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pemrakarsa/Pendiri|External Regional|Individual</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>10</v>
@@ -3157,19 +3163,19 @@
         <v>30</v>
       </c>
       <c r="F112" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pemrakarsa/Pendiri|External National|Individual</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>7</v>
@@ -3178,19 +3184,19 @@
         <v>20</v>
       </c>
       <c r="F113" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pemrakarsa/Pendiri|External Provincial|Individual</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>7</v>
@@ -3199,16 +3205,16 @@
         <v>10</v>
       </c>
       <c r="F114" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pemrakarsa/Pendiri|Kab/Kota/PT|Individual</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>11</v>
@@ -3220,16 +3226,16 @@
         <v>50</v>
       </c>
       <c r="F115" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pemrakarsa/Pendiri|External International|Team</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>6</v>
@@ -3241,16 +3247,16 @@
         <v>40</v>
       </c>
       <c r="F116" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pemrakarsa/Pendiri|External Regional|Team</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>10</v>
@@ -3262,19 +3268,19 @@
         <v>30</v>
       </c>
       <c r="F117" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pemrakarsa/Pendiri|External National|Team</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>12</v>
@@ -3283,19 +3289,19 @@
         <v>20</v>
       </c>
       <c r="F118" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pemrakarsa/Pendiri|External Provincial|Team</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>12</v>
@@ -3304,16 +3310,16 @@
         <v>10</v>
       </c>
       <c r="F119" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pemrakarsa/Pendiri|Kab/Kota/PT|Team</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>11</v>
@@ -3325,16 +3331,16 @@
         <v>40</v>
       </c>
       <c r="F120" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penerima Hibah Kompetisi|External International|Individual</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>6</v>
@@ -3346,16 +3352,16 @@
         <v>30</v>
       </c>
       <c r="F121" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penerima Hibah Kompetisi|External Regional|Individual</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>10</v>
@@ -3367,19 +3373,19 @@
         <v>20</v>
       </c>
       <c r="F122" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penerima Hibah Kompetisi|External National|Individual</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>7</v>
@@ -3388,16 +3394,16 @@
         <v>10</v>
       </c>
       <c r="F123" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penerima Hibah Kompetisi|External Provincial|Individual</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>11</v>
@@ -3409,16 +3415,16 @@
         <v>20</v>
       </c>
       <c r="F124" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pengakuan Lainnya|External International|Individual</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>6</v>
@@ -3430,16 +3436,16 @@
         <v>15</v>
       </c>
       <c r="F125" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pengakuan Lainnya|External Regional|Individual</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>10</v>
@@ -3451,19 +3457,19 @@
         <v>10</v>
       </c>
       <c r="F126" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pengakuan Lainnya|External National|Individual</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>7</v>
@@ -3472,16 +3478,16 @@
         <v>5</v>
       </c>
       <c r="F127" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pengakuan Lainnya|External Provincial|Individual</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>11</v>
@@ -3493,16 +3499,16 @@
         <v>20</v>
       </c>
       <c r="F128" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pengakuan Lainnya|External International|Team</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>6</v>
@@ -3514,16 +3520,16 @@
         <v>15</v>
       </c>
       <c r="F129" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pengakuan Lainnya|External Regional|Team</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>10</v>
@@ -3535,19 +3541,19 @@
         <v>10</v>
       </c>
       <c r="F130" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pengakuan Lainnya|External National|Team</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>12</v>
@@ -3556,16 +3562,16 @@
         <v>5</v>
       </c>
       <c r="F131" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Pengakuan Lainnya|External Provincial|Team</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>11</v>
@@ -3577,16 +3583,16 @@
         <v>10</v>
       </c>
       <c r="F132" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penghargaan Lainnya|External International|Individual</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>6</v>
@@ -3598,16 +3604,16 @@
         <v>5</v>
       </c>
       <c r="F133" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penghargaan Lainnya|External Regional|Individual</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>10</v>
@@ -3619,19 +3625,19 @@
         <v>3</v>
       </c>
       <c r="F134" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penghargaan Lainnya|External National|Individual</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>7</v>
@@ -3640,16 +3646,16 @@
         <v>1</v>
       </c>
       <c r="F135" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penghargaan Lainnya|External Provincial|Individual</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>11</v>
@@ -3661,16 +3667,16 @@
         <v>30</v>
       </c>
       <c r="F136" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penulis kedua (bukan korespondensi) dst karya ilmiah di journal yg bereputasi dan diakui|External International|Individual</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>11</v>
@@ -3682,16 +3688,16 @@
         <v>30</v>
       </c>
       <c r="F137" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penulis kedua (bukan korespondensi) dst karya ilmiah di journal yg bereputasi dan diakui|External International|Team</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>10</v>
@@ -3703,16 +3709,16 @@
         <v>20</v>
       </c>
       <c r="F138" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penulis kedua (bukan korespondensi) dst karya ilmiah di journal yg bereputasi dan diakui|External National|Individual</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>10</v>
@@ -3724,16 +3730,16 @@
         <v>20</v>
       </c>
       <c r="F139" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penulis kedua (bukan korespondensi) dst karya ilmiah di journal yg bereputasi dan diakui|External National|Team</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>11</v>
@@ -3745,16 +3751,16 @@
         <v>50</v>
       </c>
       <c r="F140" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penulis Utama/korespondensi karya ilmiah di journal yg bereputasi dan diakui|External International|Individual</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>10</v>
@@ -3766,16 +3772,16 @@
         <v>30</v>
       </c>
       <c r="F141" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Penulis Utama/korespondensi karya ilmiah di journal yg bereputasi dan diakui|External National|Individual</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>11</v>
@@ -3787,16 +3793,16 @@
         <v>10</v>
       </c>
       <c r="F142" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Piagam Partisipasi|External International|Individual</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>6</v>
@@ -3808,16 +3814,16 @@
         <v>5</v>
       </c>
       <c r="F143" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Piagam Partisipasi|External Regional|Individual</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>10</v>
@@ -3829,19 +3835,19 @@
         <v>3</v>
       </c>
       <c r="F144" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Piagam Partisipasi|External National|Individual</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>7</v>
@@ -3850,16 +3856,16 @@
         <v>1</v>
       </c>
       <c r="F145" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Piagam Partisipasi|External Provincial|Individual</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>11</v>
@@ -3871,16 +3877,16 @@
         <v>25</v>
       </c>
       <c r="F146" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Relawan|External International|Individual</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>6</v>
@@ -3892,16 +3898,16 @@
         <v>15</v>
       </c>
       <c r="F147" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Relawan|External Regional|Individual</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>10</v>
@@ -3913,19 +3919,19 @@
         <v>10</v>
       </c>
       <c r="F148" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Relawan|External National|Individual</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>7</v>
@@ -3934,19 +3940,19 @@
         <v>5</v>
       </c>
       <c r="F149" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Relawan|External Provincial|Individual</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>7</v>
@@ -3955,16 +3961,16 @@
         <v>3</v>
       </c>
       <c r="F150" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Relawan|Kab/Kota/PT|Individual</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>11</v>
@@ -3976,16 +3982,16 @@
         <v>25</v>
       </c>
       <c r="F151" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Relawan|External International|Team</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>6</v>
@@ -3997,16 +4003,16 @@
         <v>15</v>
       </c>
       <c r="F152" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Relawan|External Regional|Team</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>10</v>
@@ -4018,19 +4024,19 @@
         <v>10</v>
       </c>
       <c r="F153" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Relawan|External National|Team</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>12</v>
@@ -4039,19 +4045,19 @@
         <v>5</v>
       </c>
       <c r="F154" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Relawan|External Provincial|Team</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>12</v>
@@ -4060,16 +4066,16 @@
         <v>3</v>
       </c>
       <c r="F155" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Relawan|Kab/Kota/PT|Team</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>11</v>
@@ -4081,16 +4087,16 @@
         <v>30</v>
       </c>
       <c r="F156" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Satu Tingkat Dibawah Pengurus Harian|External International|Individual</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>6</v>
@@ -4102,16 +4108,16 @@
         <v>30</v>
       </c>
       <c r="F157" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Satu Tingkat Dibawah Pengurus Harian|External Regional|Individual</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>10</v>
@@ -4123,16 +4129,16 @@
         <v>20</v>
       </c>
       <c r="F158" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Satu Tingkat Dibawah Pengurus Harian|External National|Individual</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>6</v>
@@ -4144,19 +4150,19 @@
         <v>10</v>
       </c>
       <c r="F159" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Satu Tingkat Dibawah Pengurus Harian|External Regional|Individual</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>7</v>
@@ -4165,19 +4171,19 @@
         <v>5</v>
       </c>
       <c r="F160" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Satu Tingkat Dibawah Pengurus Harian|External Provincial|Individual</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>7</v>
@@ -4186,16 +4192,16 @@
         <v>2</v>
       </c>
       <c r="F161" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Satu Tingkat Dibawah Pengurus Harian|Kab/Kota/PT|Individual</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>11</v>
@@ -4207,16 +4213,16 @@
         <v>40</v>
       </c>
       <c r="F162" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Sekretaris|External International|Individual</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>6</v>
@@ -4228,16 +4234,16 @@
         <v>40</v>
       </c>
       <c r="F163" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Sekretaris|External Regional|Individual</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>10</v>
@@ -4249,16 +4255,16 @@
         <v>30</v>
       </c>
       <c r="F164" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Sekretaris|External National|Individual</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>6</v>
@@ -4270,20 +4276,20 @@
         <v>20</v>
       </c>
       <c r="F165" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Sekretaris|External Regional|Individual</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D166" s="3" t="s">
         <v>7</v>
       </c>
@@ -4291,19 +4297,19 @@
         <v>10</v>
       </c>
       <c r="F166" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Sekretaris|External Provincial|Individual</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>7</v>
@@ -4312,16 +4318,16 @@
         <v>6</v>
       </c>
       <c r="F167" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Sekretaris|Kab/Kota/PT|Individual</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>11</v>
@@ -4333,16 +4339,16 @@
         <v>50</v>
       </c>
       <c r="F168" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Tanda Jasa|External International|Individual</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>6</v>
@@ -4354,16 +4360,16 @@
         <v>40</v>
       </c>
       <c r="F169" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Tanda Jasa|External Regional|Individual</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>10</v>
@@ -4375,19 +4381,19 @@
         <v>30</v>
       </c>
       <c r="F170" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Tanda Jasa|External National|Individual</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>7</v>
@@ -4396,16 +4402,16 @@
         <v>20</v>
       </c>
       <c r="F171" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Tanda Jasa|External Provincial|Individual</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>11</v>
@@ -4417,16 +4423,16 @@
         <v>45</v>
       </c>
       <c r="F172" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Wakil Ketua|External International|Individual</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>6</v>
@@ -4438,16 +4444,16 @@
         <v>45</v>
       </c>
       <c r="F173" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Wakil Ketua|External Regional|Individual</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>10</v>
@@ -4459,16 +4465,16 @@
         <v>35</v>
       </c>
       <c r="F174" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Wakil Ketua|External National|Individual</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>6</v>
@@ -4480,19 +4486,19 @@
         <v>25</v>
       </c>
       <c r="F175" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Wakil Ketua|External Regional|Individual</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>7</v>
@@ -4501,19 +4507,19 @@
         <v>15</v>
       </c>
       <c r="F176" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Wakil Ketua|External Provincial|Individual</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>7</v>
@@ -4522,7 +4528,7 @@
         <v>8</v>
       </c>
       <c r="F177" s="4" t="str">
-        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Category]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
+        <f>CLEAN(TRIM(rubric[[#This Row],[Placement]] &amp;  "|" &amp; rubric[[#This Row],[Level]] &amp; "|" &amp; rubric[[#This Row],[Type]]))</f>
         <v>Wakil Ketua|Kab/Kota/PT|Individual</v>
       </c>
     </row>
@@ -4538,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF50769F-C9E2-4791-AA62-063BD27AD50D}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4569,7 +4575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4587,135 +4593,135 @@
         <v>Juara 1|External Regional|Individual</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 2|External Regional|Individual</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 1|External National|Individual</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 3|External Regional|Individual</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 1|External International|Individual</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 1|External National|Individual</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 1|External Regional|Team</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 2|External National|Individual</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 1|External National|Team</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 3|External National|Individual</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 1|External International|Team</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 1|External International|Individual</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 2|External Regional|Individual</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 2|External International|Individual</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 2|External National|Individual</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -4724,16 +4730,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 3|External International|Individual</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 2|External International|Individual</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -4742,140 +4748,140 @@
         <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 1|External Regional|Team</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 2|External Regional|Team</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 2|External Regional|Team</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 2|External National|Team</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 3|External Regional|Team</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 2|External International|Team</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 1|External National|Team</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 3|External Regional|Individual</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 2|External National|Team</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 3|External National|Individual</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 3|External National|Team</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 3|External International|Individual</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 1|External International|Team</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 3|External Regional|Team</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juara 2|External International|Team</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juara 3|External National|Team</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -4893,63 +4899,63 @@
         <v>Juara 3|External International|Team</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Karya mahasiswa berupa teknologi tepat guna/seni budaya/produk kreatif untuk UMKM dan Industri|External International|Team</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juri/Pelatih/Wasit|External National|Team</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Karya mahasiswa berupa teknologi tepat guna/seni budaya/produk kreatif untuk UMKM dan Industri|External Regional|Individual</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juri/Pelatih/Wasit|External International|Team</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Karya mahasiswa berupa teknologi tepat guna/seni budaya/produk kreatif untuk UMKM dan Industri|External Regional|Team</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juri/Pelatih/Wasit|External National|Individual</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -4958,122 +4964,122 @@
         <v>7</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Karya mahasiswa berupa teknologi tepat guna/seni budaya/produk kreatif untuk UMKM dan Industri|External International|Individual</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Juri/Pelatih/Wasit|External International|Individual</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juri/Pelatih/Wasit|External National|Team</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Karya cipta lagu yang telah dipublikasikan dan mendapatkan sertifikat hak kekayaan intelektual|External National|Individual</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juri/Pelatih/Wasit|External International|Team</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Karya cipta seni tari yang telah dipentaskan dan mendapatkan sertifikat hak kekayaan intelektual.|External National|Individual</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juri/Pelatih/Wasit|External National|Individual</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Karya mahasiswa berupa teknologi tepat guna/seni budaya/produk kreatif untuk UMKM dan Industri|External International|Team</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Juri/Pelatih/Wasit|External International|Individual</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Karya mahasiswa berupa teknologi tepat guna/seni budaya/produk kreatif untuk UMKM dan Industri|External Regional|Individual</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
         <v>15</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4</v>
       </c>
       <c r="E28" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Pemakalah dalam Conference/Seminar Ilmiah|External National|Team</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Karya mahasiswa berupa teknologi tepat guna/seni budaya/produk kreatif untuk UMKM dan Industri|External Regional|Team</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
         <v>15</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2">
-        <v>6</v>
       </c>
       <c r="E29" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Pemakalah dalam Conference/Seminar Ilmiah|External International|Team</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Karya mahasiswa berupa teknologi tepat guna/seni budaya/produk kreatif untuk UMKM dan Industri|External International|Individual</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -5081,17 +5087,17 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
       </c>
       <c r="E30" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Pemakalah dalam Conference/Seminar Ilmiah|External National|Individual</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Pemakalah dalam Conference/Seminar Ilmiah|External National|Team</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -5099,53 +5105,53 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2">
         <v>6</v>
       </c>
       <c r="E31" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Pemakalah dalam Conference/Seminar Ilmiah|External International|Individual</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Pemakalah dalam Conference/Seminar Ilmiah|External International|Team</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
       </c>
       <c r="E32" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Pembicara pada pelatihan/seminar/event berskala|External National|Team</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Pemakalah dalam Conference/Seminar Ilmiah|External National|Individual</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Pembicara pada pelatihan/seminar/event berskala|External International|Team</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Pemakalah dalam Conference/Seminar Ilmiah|External International|Individual</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -5153,17 +5159,17 @@
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
       </c>
       <c r="E34" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Pembicara pada pelatihan/seminar/event berskala|External National|Individual</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Pembicara pada pelatihan/seminar/event berskala|External National|Team</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -5171,71 +5177,71 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
       </c>
       <c r="E35" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Pembicara pada pelatihan/seminar/event berskala|External International|Individual</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Pembicara pada pelatihan/seminar/event berskala|External International|Team</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E36" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Pendaftaran paten/paten sederhana|-|-</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Pembicara pada pelatihan/seminar/event berskala|External National|Individual</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Penulis pertama buku ber-ISBN|External National|Team</v>
+        <v>Pembicara pada pelatihan/seminar/event berskala|External International|Individual</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Penulis pertama buku ber-ISBN|External International|Team</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Pendaftaran paten/paten sederhana|External National|Individual</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -5243,17 +5249,17 @@
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2">
         <v>6</v>
       </c>
       <c r="E39" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Penulis pertama buku ber-ISBN|External National|Individual</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Penulis pertama buku ber-ISBN|External National|Team</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5261,53 +5267,53 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2">
         <v>6</v>
       </c>
       <c r="E40" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Penulis pertama buku ber-ISBN|External International|Individual</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Penulis pertama buku ber-ISBN|External International|Team</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Penulis pertama pada jurnal internasional bereputasi atau jurnal nasional terindeks SINTA 1 dan 2|External National|Team</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Penulis pertama buku ber-ISBN|External National|Individual</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Penulis pertama pada jurnal internasional bereputasi atau jurnal nasional terindeks SINTA 1 dan 2|External International|Team</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Penulis pertama buku ber-ISBN|External International|Individual</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -5315,17 +5321,17 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2">
         <v>5</v>
       </c>
       <c r="E43" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Penulis pertama pada jurnal internasional bereputasi atau jurnal nasional terindeks SINTA 1 dan 2|External National|Individual</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Penulis pertama pada jurnal internasional bereputasi atau jurnal nasional terindeks SINTA 1 dan 2|External National|Team</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -5333,58 +5339,58 @@
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2">
         <v>5</v>
       </c>
       <c r="E44" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Penulis pertama pada jurnal internasional bereputasi atau jurnal nasional terindeks SINTA 1 dan 2|External International|Individual</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Penulis pertama pada jurnal internasional bereputasi atau jurnal nasional terindeks SINTA 1 dan 2|External International|Team</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E45" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Peserta Pameran Karya Seni|External National|-</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Penulis pertama pada jurnal internasional bereputasi atau jurnal nasional terindeks SINTA 1 dan 2|External National|Individual</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Peserta Pameran Karya Seni|External International|-</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Penulis pertama pada jurnal internasional bereputasi atau jurnal nasional terindeks SINTA 1 dan 2|External International|Individual</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>18</v>
@@ -5394,28 +5400,28 @@
       </c>
       <c r="E47" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Karya cipta lagu yang telah dipublikasikan dan mendapatkan sertifikat hak kekayaan intelektual|-|-</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Peserta Pameran Karya Seni|External National|-</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E48" s="2" t="str">
         <f>CLEAN(TRIM(GradingSimkat[[#This Row],[Placement]] &amp;  "|" &amp; GradingSimkat[[#This Row],[Level]] &amp; "|" &amp; GradingSimkat[[#This Row],[Team Category]]))</f>
-        <v>Karya cipta seni tari yang telah dipentaskan dan mendapatkan sertifikat hak kekayaan intelektual.|-|-</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Peserta Pameran Karya Seni|External International|-</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>Tuan rumah kejuaraan Kompetisi|External National|-</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
